--- a/25 Rumus Wajib di Excel - File Latihan (1).xlsx
+++ b/25 Rumus Wajib di Excel - File Latihan (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -534,8 +534,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
@@ -585,13 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,13 +618,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="97">
       <selection activeCell="F5" sqref="F5"/>
@@ -1221,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="56">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0" zoomScale="116">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="15.15">
+    <row r="2" spans="8:8">
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="8:8" ht="15.15">
+    <row r="6" spans="8:8">
       <c r="A6" s="14" t="s">
         <v>120</v>
       </c>
@@ -1523,9 +1523,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="30">
+    <sheetView workbookViewId="0" topLeftCell="B1" zoomScale="85">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -1605,10 +1605,10 @@
   <mergeCells count="10">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:B1"/>
@@ -1620,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0" topLeftCell="D1" zoomScale="61">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -1654,7 +1654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="8:8" ht="15.05">
       <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
@@ -1664,13 +1664,19 @@
       <c r="C2" s="14">
         <v>1990.0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="14" t="str">
+        <f>CONCATENATE(C2,"-",A2)</f>
+        <v>1990-HR</v>
+      </c>
+      <c r="E2" s="5">
+        <f>LEN(B2)</f>
+        <v>5.0</v>
+      </c>
       <c r="G2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="8:8" ht="15.05">
       <c r="A3" s="14" t="s">
         <v>60</v>
       </c>
@@ -1680,13 +1686,19 @@
       <c r="C3" s="14">
         <v>1994.0</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="14" t="str">
+        <f>CONCATENATE(C3,"-",A3)</f>
+        <v>1994-Finance</v>
+      </c>
+      <c r="E3" s="5">
+        <f>LEN(B3)</f>
+        <v>5.0</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:8" ht="15.05">
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
@@ -1696,13 +1708,19 @@
       <c r="C4" s="14">
         <v>1989.0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="14" t="str">
+        <f>CONCATENATE(C4,"-",A4)</f>
+        <v>1989-Sales</v>
+      </c>
+      <c r="E4" s="5">
+        <f>LEN(B4)</f>
+        <v>8.0</v>
+      </c>
       <c r="G4" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" ht="15.05">
       <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
@@ -1712,8 +1730,14 @@
       <c r="C5" s="14">
         <v>1997.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="14" t="str">
+        <f>CONCATENATE(C5,"-",A5)</f>
+        <v>1997-HR</v>
+      </c>
+      <c r="E5" s="5">
+        <f>LEN(B5)</f>
+        <v>7.0</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>95</v>
       </c>
@@ -1735,49 +1759,85 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
+    <row r="10" spans="8:8" ht="15.05">
       <c r="A10" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="C10" s="5" t="str">
+        <f>LEFT(B10,3)</f>
+        <v>123</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>MID(B10,4,7)</f>
+        <v>4560101</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>RIGHT(B10,2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="16.55">
       <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="8:8">
+      <c r="C11" s="5" t="str">
+        <f>LEFT(B11,3)</f>
+        <v>288</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>MID(B11,4,7)</f>
+        <v>5670208</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>RIGHT(B11,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" ht="16.55">
       <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="C12" s="5" t="str">
+        <f>LEFT(B12,3)</f>
+        <v>139</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>MID(B12,4,7)</f>
+        <v>8780204</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f>RIGHT(B12,2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" ht="16.55">
       <c r="A13" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="5" t="str">
+        <f>LEFT(B13,3)</f>
+        <v>456</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>MID(B13,4,7)</f>
+        <v>1231912</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f>RIGHT(B13,2)</f>
+        <v>04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0" topLeftCell="J1" zoomScale="70">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -1835,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="15.0">
+    <row r="2" spans="8:8">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2155,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="43">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="D1" zoomScale="108">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -2187,124 +2247,214 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="8:8" ht="15.0">
       <c r="A2" s="28">
         <v>44261.0</v>
       </c>
       <c r="B2" s="29">
         <v>106.0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="14" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Fiona</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>HLOOKUP(D2,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="8:8" ht="15.25">
       <c r="A3" s="28">
         <v>44257.0</v>
       </c>
       <c r="B3" s="29">
         <v>102.0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="14" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Budi</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>HLOOKUP(D3,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:8" ht="15.25">
       <c r="A4" s="28">
         <v>44259.0</v>
       </c>
       <c r="B4" s="29">
         <v>104.0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="14" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Dewi</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Surabaya</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>HLOOKUP(D4,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>3 Hari</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" ht="15.25">
       <c r="A5" s="28">
         <v>44260.0</v>
       </c>
       <c r="B5" s="29">
         <v>105.0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="8:8">
+      <c r="C5" s="14" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Eko</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>HLOOKUP(D5,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" ht="15.25">
       <c r="A6" s="28">
         <v>44265.0</v>
       </c>
       <c r="B6" s="29">
         <v>110.0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="C6" s="14" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Juned</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>HLOOKUP(D6,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" ht="15.25">
       <c r="A7" s="28">
         <v>44258.0</v>
       </c>
       <c r="B7" s="29">
         <v>103.0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="8:8">
+      <c r="C7" s="14" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Clara</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>HLOOKUP(D7,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" ht="15.25">
       <c r="A8" s="28">
         <v>44263.0</v>
       </c>
       <c r="B8" s="29">
         <v>108.0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="8:8">
+      <c r="C8" s="14" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Hesti</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>HLOOKUP(D8,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="15.25">
       <c r="A9" s="28">
         <v>44264.0</v>
       </c>
       <c r="B9" s="29">
         <v>109.0</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="8:8">
+      <c r="C9" s="14" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Igna</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>HLOOKUP(D9,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" ht="15.25">
       <c r="A10" s="28">
         <v>44256.0</v>
       </c>
       <c r="B10" s="29">
         <v>101.0</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="C10" s="14" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Andi</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>HLOOKUP(D10,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="15.25">
       <c r="A11" s="28">
         <v>44262.0</v>
       </c>
       <c r="B11" s="29">
         <v>112.0</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="14" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="14" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="14" t="e">
+        <f>HLOOKUP(D11,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="38">
       <selection activeCell="A15" sqref="A15"/>
